--- a/Model2/excel/DemR/results/Overview_fullweek_DRres0_1.xlsx
+++ b/Model2/excel/DemR/results/Overview_fullweek_DRres0_1.xlsx
@@ -9,15 +9,20 @@
   <sheets>
     <sheet name="reserves" sheetId="1" r:id="rId1"/>
     <sheet name="capacities" sheetId="2" r:id="rId2"/>
-    <sheet name="curtailment" sheetId="3" r:id="rId3"/>
-    <sheet name="storage" sheetId="4" r:id="rId4"/>
+    <sheet name="storage" sheetId="3" r:id="rId3"/>
+    <sheet name="generation" sheetId="4" r:id="rId4"/>
+    <sheet name="demandshift" sheetId="5" r:id="rId5"/>
+    <sheet name="curtailment" sheetId="6" r:id="rId6"/>
+    <sheet name="storc" sheetId="7" r:id="rId7"/>
+    <sheet name="stordisc" sheetId="8" r:id="rId8"/>
+    <sheet name="maxshift" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="43">
   <si>
     <t>generation</t>
   </si>
@@ -118,6 +123,21 @@
     <t>WIND_ON</t>
   </si>
   <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>STOR_L</t>
+  </si>
+  <si>
+    <t>STOR_M_C</t>
+  </si>
+  <si>
+    <t>STOR_M_E</t>
+  </si>
+  <si>
+    <t>STOR_S</t>
+  </si>
+  <si>
     <t>curt</t>
   </si>
   <si>
@@ -130,22 +150,7 @@
     <t>curt70</t>
   </si>
   <si>
-    <t>GRI</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>STOR_L</t>
-  </si>
-  <si>
-    <t>STOR_M_C</t>
-  </si>
-  <si>
-    <t>STOR_M_E</t>
-  </si>
-  <si>
-    <t>STOR_S</t>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -561,40 +566,40 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>7184.28216991698</v>
+        <v>43098.0494687564</v>
       </c>
       <c r="D2">
-        <v>289.4692938315</v>
+        <v>2040.89755993315</v>
       </c>
       <c r="E2">
-        <v>248593.181375052</v>
+        <v>1563047.38526707</v>
       </c>
       <c r="F2">
-        <v>621.7374821662</v>
+        <v>3673.45375894286</v>
       </c>
       <c r="G2">
-        <v>2379.8556341321</v>
+        <v>12782.0054158497</v>
       </c>
       <c r="H2">
-        <v>428585.44135814</v>
+        <v>2623209.61978122</v>
       </c>
       <c r="I2">
-        <v>47531.3134469512</v>
+        <v>317450.954035526</v>
       </c>
       <c r="J2">
-        <v>91740.1439942727</v>
+        <v>507131.537301501</v>
       </c>
       <c r="K2">
-        <v>483304.703906036</v>
+        <v>2991495.28516035</v>
       </c>
       <c r="L2">
-        <v>50486.667011883</v>
+        <v>335167.72008951</v>
       </c>
       <c r="M2">
-        <v>375905.454245926</v>
+        <v>2382256.98602271</v>
       </c>
       <c r="N2">
-        <v>265006.616123039</v>
+        <v>1509801.53785841</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -605,40 +610,40 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>42907.4976131316</v>
+        <v>265815.564785609</v>
       </c>
       <c r="D3">
-        <v>61381.9570343615</v>
+        <v>360978.677304226</v>
       </c>
       <c r="E3">
-        <v>155747.747547011</v>
+        <v>1007098.5345612</v>
       </c>
       <c r="F3">
-        <v>12146.6139797656</v>
+        <v>67895.1427631587</v>
       </c>
       <c r="G3">
-        <v>183526.127005128</v>
+        <v>1074123.97140259</v>
       </c>
       <c r="H3">
-        <v>239866.886315402</v>
+        <v>1523261.40182332</v>
       </c>
       <c r="I3">
-        <v>111475.127157761</v>
+        <v>746512.53452569</v>
       </c>
       <c r="J3">
-        <v>312986.138666484</v>
+        <v>1853040.80157392</v>
       </c>
       <c r="K3">
-        <v>202068.592634131</v>
+        <v>1242123.17714072</v>
       </c>
       <c r="L3">
-        <v>45484.228739047</v>
+        <v>309828.643705918</v>
       </c>
       <c r="M3">
-        <v>564017.660420168</v>
+        <v>3362376.63943417</v>
       </c>
       <c r="N3">
-        <v>99560.3724859619</v>
+        <v>681473.868392392</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -649,40 +654,40 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>3144.29896614389</v>
+        <v>19499.7149315835</v>
       </c>
       <c r="D4">
-        <v>5603.60132562191</v>
+        <v>35017.5126361822</v>
       </c>
       <c r="E4">
-        <v>125652.099708235</v>
+        <v>821485.172432248</v>
       </c>
       <c r="F4">
-        <v>15926.1581087855</v>
+        <v>102864.068625104</v>
       </c>
       <c r="G4">
-        <v>2048.16044445505</v>
+        <v>11915.9095744127</v>
       </c>
       <c r="H4">
-        <v>116425.68144676</v>
+        <v>761222.421800492</v>
       </c>
       <c r="I4">
-        <v>32066.2885652103</v>
+        <v>210127.675971828</v>
       </c>
       <c r="J4">
-        <v>9030.30801938893</v>
+        <v>53542.1575744476</v>
       </c>
       <c r="K4">
-        <v>93303.4034154007</v>
+        <v>612332.566453724</v>
       </c>
       <c r="L4">
-        <v>12069.7989287814</v>
+        <v>79603.5809713737</v>
       </c>
       <c r="M4">
-        <v>47434.9497023683</v>
+        <v>284898.768087138</v>
       </c>
       <c r="N4">
-        <v>74895.2513688496</v>
+        <v>511500.050941478</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -693,40 +698,40 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>278153.788362498</v>
+        <v>1699266.54807866</v>
       </c>
       <c r="D5">
-        <v>318.6663758593</v>
+        <v>1806.64388330165</v>
       </c>
       <c r="E5">
-        <v>1218026.89725381</v>
+        <v>7851566.49561366</v>
       </c>
       <c r="F5">
-        <v>229865.014557008</v>
+        <v>1439730.68323806</v>
       </c>
       <c r="G5">
-        <v>1306666.06685848</v>
+        <v>8582710.76352862</v>
       </c>
       <c r="H5">
-        <v>541003.884911114</v>
+        <v>2944769.45888377</v>
       </c>
       <c r="I5">
-        <v>418202.132813433</v>
+        <v>2822906.78534742</v>
       </c>
       <c r="J5">
-        <v>328137.123630054</v>
+        <v>1915517.07862818</v>
       </c>
       <c r="K5">
-        <v>1963460.04569313</v>
+        <v>12123310.8351085</v>
       </c>
       <c r="L5">
-        <v>298683.169562968</v>
+        <v>1965152.3328307</v>
       </c>
       <c r="M5">
-        <v>366306.905944534</v>
+        <v>1943745.16109805</v>
       </c>
       <c r="N5">
-        <v>2258278.55557771</v>
+        <v>14270221.8535303</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -737,40 +742,40 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>322655.491532289</v>
+        <v>1906123.10650087</v>
       </c>
       <c r="D6">
-        <v>1110521.25178881</v>
+        <v>7229255.84608095</v>
       </c>
       <c r="E6">
-        <v>101725.423820696</v>
+        <v>663179.716922809</v>
       </c>
       <c r="F6">
-        <v>893135.869773731</v>
+        <v>5068437.7776591</v>
       </c>
       <c r="G6">
-        <v>1217803.72528765</v>
+        <v>8095043.47555302</v>
       </c>
       <c r="H6">
-        <v>13290.1756678731</v>
+        <v>98487.8830948014</v>
       </c>
       <c r="I6">
-        <v>1952399.42521432</v>
+        <v>11609462.005048</v>
       </c>
       <c r="J6">
-        <v>735580.022172887</v>
+        <v>5032067.45903281</v>
       </c>
       <c r="K6">
-        <v>77671.7625678742</v>
+        <v>571151.793180391</v>
       </c>
       <c r="L6">
-        <v>614561.05692014</v>
+        <v>3466401.06315483</v>
       </c>
       <c r="M6">
-        <v>2412865.82814595</v>
+        <v>15306870.767316</v>
       </c>
       <c r="N6">
-        <v>110728.016291206</v>
+        <v>776478.183975709</v>
       </c>
     </row>
   </sheetData>
@@ -977,99 +982,6 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>796.8678694219</v>
-      </c>
-      <c r="E2">
-        <v>387.334635693</v>
-      </c>
-      <c r="F2">
-        <v>110187.157560747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2050</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1439.905156038</v>
-      </c>
-      <c r="E4">
-        <v>486122.58110922</v>
-      </c>
-      <c r="F4">
-        <v>882701.980715155</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1084,7 +996,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>19</v>
@@ -1107,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1130,7 +1042,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -1153,7 +1065,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>184.727056014301</v>
@@ -1176,19 +1088,546 @@
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>12296869.6391972</v>
+      </c>
+      <c r="D2">
+        <v>21120720.4913724</v>
+      </c>
+      <c r="E2">
+        <v>46671752.6272347</v>
+      </c>
+      <c r="F2">
+        <v>20394060.5730365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>16055580.9501673</v>
+      </c>
+      <c r="D3">
+        <v>11789224.5743716</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>11621223.9982201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>60487625.1493012</v>
+      </c>
+      <c r="D4">
+        <v>37745087.1803603</v>
+      </c>
+      <c r="E4">
+        <v>3603783.41454943</v>
+      </c>
+      <c r="F4">
+        <v>-3.18713464362762e-08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>651616.144588004</v>
+      </c>
+      <c r="D5">
+        <v>936157.027695979</v>
+      </c>
+      <c r="E5">
+        <v>1108437.72158293</v>
+      </c>
+      <c r="F5">
+        <v>1511966.11109192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>3064318.49854914</v>
+      </c>
+      <c r="D6">
+        <v>3060539.75111235</v>
+      </c>
+      <c r="E6">
+        <v>3061626.94301183</v>
+      </c>
+      <c r="F6">
+        <v>16623224.3501475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>9671675.33636667</v>
+      </c>
+      <c r="D8">
+        <v>27582669.8424673</v>
+      </c>
+      <c r="E8">
+        <v>48010353.3316329</v>
+      </c>
+      <c r="F8">
+        <v>54878934.180483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>4033735.53500634</v>
+      </c>
+      <c r="C2">
+        <v>5620347.58831561</v>
+      </c>
+      <c r="D2">
+        <v>8000686.48480481</v>
+      </c>
+      <c r="E2">
+        <v>8751114.41543989</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>10606.7776867308</v>
+      </c>
+      <c r="D2">
+        <v>1917668.62758131</v>
+      </c>
+      <c r="E2">
+        <v>4495286.06212461</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>330949.421716664</v>
+      </c>
+      <c r="C2">
+        <v>361467.555126277</v>
+      </c>
+      <c r="D2">
+        <v>1247973.95488396</v>
+      </c>
+      <c r="E2">
+        <v>11533873.8197575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>2050</v>
+      </c>
+      <c r="B2">
+        <v>248212.066287498</v>
+      </c>
+      <c r="C2">
+        <v>271100.666344666</v>
+      </c>
+      <c r="D2">
+        <v>935980.466162925</v>
+      </c>
+      <c r="E2">
+        <v>8650405.36481356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2199.32016839276</v>
+      </c>
+      <c r="C2">
+        <v>4018.55363397858</v>
+      </c>
+      <c r="D2">
+        <v>4857.62891670642</v>
+      </c>
+      <c r="E2">
+        <v>4889.57276278365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2237.58418985668</v>
+      </c>
+      <c r="C3">
+        <v>2321.30935452233</v>
+      </c>
+      <c r="D3">
+        <v>2321.30935452233</v>
+      </c>
+      <c r="E3">
+        <v>2321.30935452233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2166.41358035163</v>
+      </c>
+      <c r="C4">
+        <v>2321.30935452233</v>
+      </c>
+      <c r="D4">
+        <v>2321.30935452233</v>
+      </c>
+      <c r="E4">
+        <v>2321.30935452233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1454.5951456003</v>
+      </c>
+      <c r="C5">
+        <v>1454.5951456003</v>
+      </c>
       <c r="D5">
-        <v>0</v>
+        <v>1454.5951456003</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
+        <v>1454.5951456003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1423.26686077388</v>
+      </c>
+      <c r="C6">
+        <v>1454.5951456003</v>
+      </c>
+      <c r="D6">
+        <v>1454.5951456003</v>
+      </c>
+      <c r="E6">
+        <v>1454.5951456003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2879.66538312713</v>
+      </c>
+      <c r="C7">
+        <v>3496.8875247387</v>
+      </c>
+      <c r="D7">
+        <v>3596.11976307164</v>
+      </c>
+      <c r="E7">
+        <v>3610.51917214959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3186.21349591827</v>
+      </c>
+      <c r="C8">
+        <v>3610.51917214959</v>
+      </c>
+      <c r="D8">
+        <v>3610.51917214959</v>
+      </c>
+      <c r="E8">
+        <v>3610.51917214959</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2959.9033820404</v>
+      </c>
+      <c r="C9">
+        <v>4857.62891670642</v>
+      </c>
+      <c r="D9">
+        <v>4857.62891670642</v>
+      </c>
+      <c r="E9">
+        <v>4857.62891670642</v>
       </c>
     </row>
   </sheetData>
